--- a/storage/app/public/001_納品書_タテ型.xlsx
+++ b/storage/app/public/001_納品書_タテ型.xlsx
@@ -788,7 +788,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -835,6 +835,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -843,6 +847,114 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -854,122 +966,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1327,8 +1323,8 @@
   </sheetPr>
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:I17"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.69921875" defaultRowHeight="30" customHeight="1"/>
@@ -1344,25 +1340,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
     </row>
     <row r="2" spans="1:20" ht="10.050000000000001" customHeight="1">
       <c r="A2" s="2"/>
@@ -1384,37 +1380,37 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="16"/>
+      <c r="I3" s="45"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
       <c r="G4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1422,14 +1418,14 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
     </row>
     <row r="5" spans="1:20" ht="10.050000000000001" customHeight="1">
       <c r="A5" s="2"/>
@@ -1451,27 +1447,27 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="25.05" customHeight="1" thickBot="1">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
       <c r="S6" t="s">
         <v>16</v>
       </c>
@@ -1481,26 +1477,26 @@
     </row>
     <row r="7" spans="1:20" ht="19.95" customHeight="1" thickTop="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
       <c r="S7" t="s">
         <v>15</v>
       </c>
@@ -1516,15 +1512,15 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
       <c r="S8" t="s">
         <v>17</v>
       </c>
@@ -1540,75 +1536,75 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
       <c r="S9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.95" customHeight="1">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
       <c r="S10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="19.95" customHeight="1">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
     </row>
     <row r="12" spans="1:20" ht="19.95" customHeight="1">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -1617,15 +1613,15 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
     </row>
     <row r="13" spans="1:20" ht="19.95" customHeight="1">
       <c r="A13" s="2"/>
@@ -1638,15 +1634,15 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
     </row>
     <row r="14" spans="1:20" ht="10.050000000000001" customHeight="1">
       <c r="A14" s="2"/>
@@ -1668,30 +1664,30 @@
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:20" ht="30" customHeight="1" thickBot="1">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30">
         <f>L32</f>
         <v>0</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
     </row>
     <row r="16" spans="1:20" ht="10.050000000000001" customHeight="1" thickTop="1">
       <c r="A16" s="2"/>
@@ -1716,318 +1712,318 @@
       <c r="A17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="26" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="39" t="s">
+      <c r="K17" s="19"/>
+      <c r="L17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39" t="s">
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
     </row>
     <row r="18" spans="1:17" ht="19.95" customHeight="1">
       <c r="A18" s="11">
         <v>1</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="34" t="str">
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="20" t="str">
         <f>IF(AND(J18&lt;&gt;"",L18&lt;&gt;""),J18*L18,"")</f>
         <v/>
       </c>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
     </row>
     <row r="19" spans="1:17" ht="19.95" customHeight="1">
       <c r="A19" s="11">
         <v>2</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="34" t="str">
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="20" t="str">
         <f t="shared" ref="O19:O28" si="0">IF(AND(J19&lt;&gt;"",L19&lt;&gt;""),J19*L19,"")</f>
         <v/>
       </c>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
     </row>
     <row r="20" spans="1:17" ht="19.95" customHeight="1">
       <c r="A20" s="11">
         <v>3</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="34" t="str">
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
     </row>
     <row r="21" spans="1:17" ht="19.95" customHeight="1">
       <c r="A21" s="11">
         <v>4</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="34" t="str">
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
     </row>
     <row r="22" spans="1:17" ht="19.95" customHeight="1">
       <c r="A22" s="11">
         <v>5</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="34" t="str">
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
     </row>
     <row r="23" spans="1:17" ht="19.95" customHeight="1">
       <c r="A23" s="11">
         <v>6</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="34" t="str">
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
     </row>
     <row r="24" spans="1:17" ht="19.95" customHeight="1">
       <c r="A24" s="11">
         <v>7</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="34" t="str">
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
     </row>
     <row r="25" spans="1:17" ht="19.95" customHeight="1">
       <c r="A25" s="11">
         <v>8</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="34" t="str">
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
     </row>
     <row r="26" spans="1:17" ht="19.95" customHeight="1">
       <c r="A26" s="11">
         <v>9</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="34" t="str">
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
     </row>
     <row r="27" spans="1:17" ht="19.95" customHeight="1">
       <c r="A27" s="11">
         <v>10</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="34" t="str">
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
     </row>
     <row r="28" spans="1:17" ht="19.95" customHeight="1">
       <c r="A28" s="11">
         <v>11</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="34" t="str">
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
     </row>
     <row r="29" spans="1:17" ht="19.95" customHeight="1">
       <c r="A29" s="11">
         <v>12</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="34" t="str">
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="20" t="str">
         <f>IF(AND(J29&lt;&gt;"",L29&lt;&gt;""),J29*L29,"")</f>
         <v/>
       </c>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
     </row>
     <row r="30" spans="1:17" ht="19.95" customHeight="1">
       <c r="A30" s="3"/>
@@ -2039,19 +2035,19 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="26" t="s">
+      <c r="J30" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="28"/>
-      <c r="L30" s="46">
+      <c r="K30" s="19"/>
+      <c r="L30" s="24">
         <f>SUM(O18:Q29)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
     </row>
     <row r="31" spans="1:17" ht="19.95" customHeight="1">
       <c r="A31" s="3"/>
@@ -2063,43 +2059,43 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="26" t="s">
+      <c r="J31" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="28"/>
-      <c r="L31" s="34">
+      <c r="K31" s="19"/>
+      <c r="L31" s="20">
         <f>L30*$T$6</f>
         <v>0</v>
       </c>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
     </row>
     <row r="32" spans="1:17" ht="19.95" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="26" t="s">
+      <c r="J32" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="28"/>
-      <c r="L32" s="44">
+      <c r="K32" s="19"/>
+      <c r="L32" s="17">
         <f>L30+L31</f>
         <v>0</v>
       </c>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
     <row r="33" spans="1:17" ht="19.95" customHeight="1">
       <c r="A33" s="3"/>
@@ -2122,11 +2118,11 @@
     </row>
     <row r="34" spans="1:17" ht="19.95" customHeight="1">
       <c r="A34" s="3"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -2140,101 +2136,135 @@
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" ht="19.95" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
+      <c r="A35" s="3">
+        <v>1</v>
+      </c>
+      <c r="B35" s="12">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+      <c r="D35" s="12">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5</v>
+      </c>
+      <c r="F35" s="12">
+        <v>6</v>
+      </c>
+      <c r="G35" s="3">
+        <v>7</v>
+      </c>
+      <c r="H35" s="12">
+        <v>8</v>
+      </c>
+      <c r="I35" s="3">
+        <v>9</v>
+      </c>
+      <c r="J35" s="12">
+        <v>10</v>
+      </c>
+      <c r="K35" s="3">
+        <v>11</v>
+      </c>
+      <c r="L35" s="12">
+        <v>12</v>
+      </c>
+      <c r="M35" s="3">
+        <v>13</v>
+      </c>
+      <c r="N35" s="12">
+        <v>14</v>
+      </c>
+      <c r="O35" s="3">
+        <v>15</v>
+      </c>
+      <c r="P35" s="12">
+        <v>16</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>17</v>
+      </c>
     </row>
     <row r="36" spans="1:17" ht="19.95" customHeight="1">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
     </row>
     <row r="37" spans="1:17" ht="19.95" customHeight="1">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
     </row>
     <row r="38" spans="1:17" ht="19.95" customHeight="1">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
     </row>
     <row r="39" spans="1:17" ht="19.95" customHeight="1">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
     </row>
     <row r="40" spans="1:17" s="3" customFormat="1" ht="19.95" customHeight="1">
       <c r="A40" s="8" t="s">
@@ -2252,42 +2282,53 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="97">
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="A36:B39"/>
-    <mergeCell ref="C36:Q39"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="L32:Q32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="L31:Q31"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
+  <mergeCells count="96">
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
     <mergeCell ref="B23:I23"/>
     <mergeCell ref="B24:I24"/>
     <mergeCell ref="K13:L13"/>
@@ -2304,52 +2345,40 @@
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="M13:Q13"/>
     <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="A36:B39"/>
+    <mergeCell ref="C36:Q39"/>
+    <mergeCell ref="L32:Q32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="L31:Q31"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <hyperlinks>
